--- a/numeric_to_nominal_age_dataset.xlsx
+++ b/numeric_to_nominal_age_dataset.xlsx
@@ -511,7 +511,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -871,7 +871,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -6676,7 +6676,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -7108,7 +7108,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8683,7 +8683,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -9538,7 +9538,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -9718,7 +9718,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -11743,7 +11743,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -12373,7 +12373,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -12643,7 +12643,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -13273,7 +13273,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -13633,7 +13633,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -13813,7 +13813,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -14128,7 +14128,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -14893,7 +14893,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -14983,7 +14983,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -15118,7 +15118,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -15361,7 +15361,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -15433,7 +15433,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -16333,7 +16333,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -17323,7 +17323,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -17503,7 +17503,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -17728,7 +17728,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -18133,7 +18133,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -18628,7 +18628,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -18673,7 +18673,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -18898,7 +18898,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -18988,7 +18988,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -19078,7 +19078,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -19213,7 +19213,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>unskilled resident</t>
+          <t>'unskilled resident'</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -19303,7 +19303,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -19393,7 +19393,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -19438,7 +19438,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -19483,7 +19483,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -20221,7 +20221,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -20293,7 +20293,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -20563,7 +20563,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -20923,7 +20923,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -21058,7 +21058,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -21238,7 +21238,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -21733,7 +21733,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -22273,7 +22273,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -22453,7 +22453,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -22498,7 +22498,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -22723,7 +22723,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -23038,7 +23038,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -23173,7 +23173,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -23218,7 +23218,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -23263,7 +23263,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -23398,7 +23398,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -23713,7 +23713,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -24028,7 +24028,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -24118,7 +24118,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -24298,7 +24298,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -24388,7 +24388,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -24613,7 +24613,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -24631,7 +24631,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -24703,7 +24703,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -24973,7 +24973,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D546" t="n">
@@ -24991,7 +24991,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -25018,7 +25018,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -25063,7 +25063,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D551" t="n">
@@ -25378,7 +25378,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -25513,7 +25513,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -25693,7 +25693,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -26233,7 +26233,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -26503,7 +26503,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -26593,7 +26593,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -26638,7 +26638,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -26863,7 +26863,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -27178,7 +27178,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -27313,7 +27313,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -27403,7 +27403,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -27781,7 +27781,7 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
@@ -27898,7 +27898,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D611" t="n">
@@ -27943,7 +27943,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -27988,7 +27988,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -28078,7 +28078,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -28348,7 +28348,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -28438,7 +28438,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -28708,7 +28708,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -28816,7 +28816,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -29023,7 +29023,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -29608,7 +29608,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -29653,7 +29653,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -29833,7 +29833,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -29878,7 +29878,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -29923,7 +29923,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -29968,7 +29968,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -30013,7 +30013,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -30238,7 +30238,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -30553,7 +30553,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
@@ -31318,7 +31318,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -31498,7 +31498,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D691" t="n">
@@ -31678,7 +31678,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -31858,7 +31858,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -32038,7 +32038,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -32218,7 +32218,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -32533,7 +32533,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D716" t="n">
@@ -32668,7 +32668,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -32686,7 +32686,7 @@
       </c>
       <c r="G717" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H717" t="inlineStr">
@@ -32848,7 +32848,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D721" t="n">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D724" t="n">
@@ -33046,7 +33046,7 @@
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H725" t="inlineStr">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -33118,7 +33118,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -33411,7 +33411,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>unskilled resident</t>
+          <t>'unskilled resident'</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -33478,7 +33478,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -33523,7 +33523,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D736" t="n">
@@ -33568,7 +33568,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -33658,7 +33658,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -33703,7 +33703,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D740" t="n">
@@ -33793,7 +33793,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -34063,7 +34063,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D748" t="n">
@@ -34108,7 +34108,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D749" t="n">
@@ -34153,7 +34153,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -34198,7 +34198,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D751" t="n">
@@ -34288,7 +34288,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D753" t="n">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D757" t="n">
@@ -34513,7 +34513,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D758" t="n">
@@ -34531,7 +34531,7 @@
       </c>
       <c r="G758" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H758" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D760" t="n">
@@ -34648,7 +34648,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D761" t="n">
@@ -34693,7 +34693,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -34828,7 +34828,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D765" t="n">
@@ -34873,7 +34873,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D766" t="n">
@@ -35008,7 +35008,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -35116,7 +35116,7 @@
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H771" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D772" t="n">
@@ -35233,7 +35233,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D774" t="n">
@@ -35323,7 +35323,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D776" t="n">
@@ -35341,7 +35341,7 @@
       </c>
       <c r="G776" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H776" t="inlineStr">
@@ -35368,7 +35368,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D777" t="n">
@@ -35413,7 +35413,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D778" t="n">
@@ -35503,7 +35503,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D780" t="n">
@@ -35566,7 +35566,7 @@
       </c>
       <c r="G781" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H781" t="inlineStr">
@@ -35638,7 +35638,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D783" t="n">
@@ -35728,7 +35728,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D785" t="n">
@@ -35773,7 +35773,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D786" t="n">
@@ -35908,7 +35908,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D789" t="n">
@@ -36088,7 +36088,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D793" t="n">
@@ -36313,7 +36313,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D798" t="n">
@@ -36403,7 +36403,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D800" t="n">
@@ -36448,7 +36448,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D801" t="n">
@@ -36673,7 +36673,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D806" t="n">
@@ -36718,7 +36718,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D807" t="n">
@@ -36826,7 +36826,7 @@
       </c>
       <c r="G809" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H809" t="inlineStr">
@@ -36853,7 +36853,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D810" t="n">
@@ -36898,7 +36898,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D811" t="n">
@@ -37033,7 +37033,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D814" t="n">
@@ -37078,7 +37078,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D815" t="n">
@@ -37123,7 +37123,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D816" t="n">
@@ -37168,7 +37168,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D817" t="n">
@@ -37213,7 +37213,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D818" t="n">
@@ -37231,7 +37231,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H818" t="inlineStr">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D822" t="n">
@@ -37528,7 +37528,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D825" t="n">
@@ -37618,7 +37618,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D827" t="n">
@@ -37663,7 +37663,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D828" t="n">
@@ -37753,7 +37753,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D830" t="n">
@@ -37888,7 +37888,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D833" t="n">
@@ -38068,7 +38068,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D837" t="n">
@@ -38203,7 +38203,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D840" t="n">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="G840" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H840" t="inlineStr">
@@ -38338,7 +38338,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D843" t="n">
@@ -38563,7 +38563,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D848" t="n">
@@ -38581,7 +38581,7 @@
       </c>
       <c r="G848" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H848" t="inlineStr">
@@ -38608,7 +38608,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D849" t="n">
@@ -38743,7 +38743,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D852" t="n">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D853" t="n">
@@ -38878,7 +38878,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D855" t="n">
@@ -38923,7 +38923,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D856" t="n">
@@ -38968,7 +38968,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D857" t="n">
@@ -39103,7 +39103,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D860" t="n">
@@ -39148,7 +39148,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D861" t="n">
@@ -39193,7 +39193,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D862" t="n">
@@ -39688,7 +39688,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D873" t="n">
@@ -39778,7 +39778,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D875" t="n">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D877" t="n">
@@ -40003,7 +40003,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D880" t="n">
@@ -40093,7 +40093,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D882" t="n">
@@ -40138,7 +40138,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D883" t="n">
@@ -40183,7 +40183,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D884" t="n">
@@ -40246,7 +40246,7 @@
       </c>
       <c r="G885" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H885" t="inlineStr">
@@ -40453,7 +40453,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D890" t="n">
@@ -40498,7 +40498,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D891" t="n">
@@ -40633,7 +40633,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D894" t="n">
@@ -40678,7 +40678,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D895" t="n">
@@ -40768,7 +40768,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D897" t="n">
@@ -40993,7 +40993,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D902" t="n">
@@ -41038,7 +41038,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D903" t="n">
@@ -41083,7 +41083,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D904" t="n">
@@ -41263,7 +41263,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D908" t="n">
@@ -41353,7 +41353,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D910" t="n">
@@ -41398,7 +41398,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D911" t="n">
@@ -41713,7 +41713,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D918" t="n">
@@ -41758,7 +41758,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D919" t="n">
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G919" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H919" t="inlineStr">
@@ -42028,7 +42028,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D925" t="n">
@@ -42118,7 +42118,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D927" t="n">
@@ -42208,7 +42208,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D929" t="n">
@@ -42298,7 +42298,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D931" t="n">
@@ -42433,7 +42433,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D934" t="n">
@@ -42748,7 +42748,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D941" t="n">
@@ -42793,7 +42793,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D942" t="n">
@@ -42838,7 +42838,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D943" t="n">
@@ -42928,7 +42928,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D945" t="n">
@@ -43018,7 +43018,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D947" t="n">
@@ -43108,7 +43108,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D949" t="n">
@@ -43333,7 +43333,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D954" t="n">
@@ -43423,7 +43423,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D956" t="n">
@@ -43603,7 +43603,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D960" t="n">
@@ -43738,7 +43738,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D963" t="n">
@@ -43783,7 +43783,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D964" t="n">
@@ -44098,7 +44098,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D971" t="n">
@@ -44188,7 +44188,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D973" t="n">
@@ -44233,7 +44233,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D974" t="n">
@@ -44431,7 +44431,7 @@
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H978" t="inlineStr">
@@ -44503,7 +44503,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D980" t="n">
@@ -44548,7 +44548,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D981" t="n">
@@ -44683,7 +44683,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D984" t="n">
@@ -44728,7 +44728,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D985" t="n">
@@ -44926,7 +44926,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>Old</t>
+          <t>Senior</t>
         </is>
       </c>
       <c r="H989" t="inlineStr">
@@ -44953,7 +44953,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D990" t="n">
@@ -45223,7 +45223,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D996" t="n">
@@ -45313,7 +45313,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D998" t="n">
@@ -45448,7 +45448,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D1001" t="n">
